--- a/Example_Files/Template; Compound Setup Table T200 S200 Up to 32 Compunds 10 Point Dose.xlsx
+++ b/Example_Files/Template; Compound Setup Table T200 S200 Up to 32 Compunds 10 Point Dose.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bfulroth/GitProjects/SPR_Create_Dotmatics_ADLP_File/Example Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bfulroth/GitProjects/SPR_Create_Dotmatics_ADLP_File/Example_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681755E6-9510-D34F-9593-5CC82FC8AAE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99B0776-13FF-E948-83F1-93E62A8AAEED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26820" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="84">
   <si>
     <t>Broad ID</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>P24</t>
+  </si>
+  <si>
+    <t>Plate_Barcode</t>
   </si>
 </sst>
 </file>
@@ -1656,13 +1659,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV33"/>
+  <dimension ref="A1:IW33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1671,13 +1674,15 @@
     <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="13" width="16.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16" width="10.6640625" style="1" customWidth="1"/>
-    <col min="17" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.6640625" style="1" customWidth="1"/>
+    <col min="10" max="14" width="16.33203125" style="1" customWidth="1"/>
+    <col min="15" max="17" width="10.6640625" style="1" customWidth="1"/>
+    <col min="18" max="257" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:257" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1694,45 +1699,47 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
@@ -1970,8 +1977,9 @@
       <c r="IT1" s="3"/>
       <c r="IU1" s="3"/>
       <c r="IV1" s="3"/>
+      <c r="IW1" s="3"/>
     </row>
-    <row r="2" spans="1:256" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:257" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>18</v>
       </c>
@@ -1987,51 +1995,52 @@
       <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="7">
-        <v>1154027486</v>
-      </c>
+      <c r="F2" s="8"/>
       <c r="G2" s="7">
         <v>1154027486</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7">
+        <v>1154027486</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="7">
-        <v>10</v>
-      </c>
       <c r="J2" s="7">
-        <f t="shared" ref="J2:J18" si="0">I2*1000</f>
+        <v>10</v>
+      </c>
+      <c r="K2" s="7">
+        <f t="shared" ref="K2:K18" si="0">J2*1000</f>
         <v>10000</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>200</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>50</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>2</v>
       </c>
-      <c r="O2" s="7">
-        <v>10</v>
-      </c>
       <c r="P2" s="7">
-        <f t="shared" ref="P2:P18" si="1">L2-Q2-R2</f>
+        <v>10</v>
+      </c>
+      <c r="Q2" s="7">
+        <f t="shared" ref="Q2:Q18" si="1">M2-R2-S2</f>
         <v>190</v>
       </c>
-      <c r="Q2" s="7">
-        <f t="shared" ref="Q2:Q18" si="2">(M2*L2)/J2</f>
+      <c r="R2" s="7">
+        <f t="shared" ref="R2:R18" si="2">(N2*M2)/K2</f>
         <v>1</v>
       </c>
-      <c r="R2" s="7">
-        <f t="shared" ref="R2:R18" si="3">10-Q2</f>
+      <c r="S2" s="7">
+        <f t="shared" ref="S2:S18" si="3">10-R2</f>
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:257" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>23</v>
       </c>
@@ -2045,51 +2054,52 @@
       <c r="E3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="10">
-        <v>1147052942</v>
-      </c>
+      <c r="F3" s="12"/>
       <c r="G3" s="10">
         <v>1147052942</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10">
+        <v>1147052942</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="10">
-        <v>10</v>
-      </c>
       <c r="J3" s="10">
+        <v>10</v>
+      </c>
+      <c r="K3" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="10">
         <v>200</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="10">
         <v>50</v>
       </c>
-      <c r="N3" s="10">
+      <c r="O3" s="10">
         <v>2</v>
       </c>
-      <c r="O3" s="10">
-        <v>10</v>
-      </c>
       <c r="P3" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R3" s="10">
+      <c r="S3" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:257" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
@@ -2103,51 +2113,52 @@
       <c r="E4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="10">
-        <v>1154027021</v>
-      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="10">
         <v>1154027021</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10">
+        <v>1154027021</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="10">
-        <v>10</v>
-      </c>
       <c r="J4" s="10">
+        <v>10</v>
+      </c>
+      <c r="K4" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="10">
+      <c r="M4" s="10">
         <v>200</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
         <v>50</v>
       </c>
-      <c r="N4" s="10">
+      <c r="O4" s="10">
         <v>2</v>
       </c>
-      <c r="O4" s="10">
-        <v>10</v>
-      </c>
       <c r="P4" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="R4" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R4" s="10">
+      <c r="S4" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:257" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
@@ -2161,51 +2172,52 @@
       <c r="E5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="10">
-        <v>1147052943</v>
-      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="10">
         <v>1147052943</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10">
+        <v>1147052943</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="10">
-        <v>10</v>
-      </c>
       <c r="J5" s="10">
+        <v>10</v>
+      </c>
+      <c r="K5" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="L5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>200</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>50</v>
       </c>
-      <c r="N5" s="10">
+      <c r="O5" s="10">
         <v>2</v>
       </c>
-      <c r="O5" s="10">
-        <v>10</v>
-      </c>
       <c r="P5" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R5" s="10">
+      <c r="S5" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:257" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
@@ -2219,51 +2231,52 @@
       <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="10">
-        <v>1147052944</v>
-      </c>
+      <c r="F6" s="12"/>
       <c r="G6" s="10">
         <v>1147052944</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10">
+        <v>1147052944</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="10">
-        <v>10</v>
-      </c>
       <c r="J6" s="10">
+        <v>10</v>
+      </c>
+      <c r="K6" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <v>200</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="10">
         <v>50</v>
       </c>
-      <c r="N6" s="10">
+      <c r="O6" s="10">
         <v>2</v>
       </c>
-      <c r="O6" s="10">
-        <v>10</v>
-      </c>
       <c r="P6" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="R6" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R6" s="10">
+      <c r="S6" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:257" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>36</v>
       </c>
@@ -2277,51 +2290,52 @@
       <c r="E7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10">
-        <v>1147052947</v>
-      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="10">
         <v>1147052947</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10">
+        <v>1147052947</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="10">
-        <v>10</v>
-      </c>
       <c r="J7" s="10">
+        <v>10</v>
+      </c>
+      <c r="K7" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="10">
+      <c r="M7" s="10">
         <v>200</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
         <v>50</v>
       </c>
-      <c r="N7" s="10">
+      <c r="O7" s="10">
         <v>2</v>
       </c>
-      <c r="O7" s="10">
-        <v>10</v>
-      </c>
       <c r="P7" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="R7" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R7" s="10">
+      <c r="S7" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:257" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>39</v>
       </c>
@@ -2335,51 +2349,52 @@
       <c r="E8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="10">
-        <v>1147053134</v>
-      </c>
+      <c r="F8" s="12"/>
       <c r="G8" s="10">
         <v>1147053134</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10">
+        <v>1147053134</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="10">
-        <v>10</v>
-      </c>
       <c r="J8" s="10">
+        <v>10</v>
+      </c>
+      <c r="K8" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="L8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="10">
+      <c r="M8" s="10">
         <v>200</v>
       </c>
-      <c r="M8" s="10">
+      <c r="N8" s="10">
         <v>50</v>
       </c>
-      <c r="N8" s="10">
+      <c r="O8" s="10">
         <v>2</v>
       </c>
-      <c r="O8" s="10">
-        <v>10</v>
-      </c>
       <c r="P8" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="R8" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R8" s="10">
+      <c r="S8" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:257" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>42</v>
       </c>
@@ -2393,51 +2408,52 @@
       <c r="E9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="10">
-        <v>1129672871</v>
-      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="10">
         <v>1129672871</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10">
+        <v>1129672871</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="10">
-        <v>10</v>
-      </c>
       <c r="J9" s="10">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="L9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="10">
+      <c r="M9" s="10">
         <v>200</v>
       </c>
-      <c r="M9" s="10">
+      <c r="N9" s="10">
         <v>50</v>
       </c>
-      <c r="N9" s="10">
+      <c r="O9" s="10">
         <v>2</v>
       </c>
-      <c r="O9" s="10">
-        <v>10</v>
-      </c>
       <c r="P9" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="R9" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R9" s="10">
+      <c r="S9" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:257" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
@@ -2453,51 +2469,52 @@
       <c r="E10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="10">
-        <v>1154027486</v>
-      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="10">
         <v>1154027486</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10">
+        <v>1154027486</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="10">
-        <v>10</v>
-      </c>
       <c r="J10" s="10">
+        <v>10</v>
+      </c>
+      <c r="K10" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <v>200</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
         <v>50</v>
       </c>
-      <c r="N10" s="10">
+      <c r="O10" s="10">
         <v>2</v>
       </c>
-      <c r="O10" s="10">
-        <v>10</v>
-      </c>
       <c r="P10" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="R10" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R10" s="10">
+      <c r="S10" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:257" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
@@ -2511,51 +2528,52 @@
       <c r="E11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="10">
-        <v>1154027486</v>
-      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="10">
         <v>1154027486</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="10">
+        <v>1154027486</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="10">
-        <v>10</v>
-      </c>
       <c r="J11" s="10">
+        <v>10</v>
+      </c>
+      <c r="K11" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="10">
+      <c r="M11" s="10">
         <v>200</v>
       </c>
-      <c r="M11" s="10">
+      <c r="N11" s="10">
         <v>50</v>
       </c>
-      <c r="N11" s="10">
+      <c r="O11" s="10">
         <v>2</v>
       </c>
-      <c r="O11" s="10">
-        <v>10</v>
-      </c>
       <c r="P11" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="R11" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R11" s="10">
+      <c r="S11" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:257" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
         <v>47</v>
       </c>
@@ -2569,51 +2587,52 @@
       <c r="E12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="10">
-        <v>1154026607</v>
-      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="10">
         <v>1154026607</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10">
+        <v>1154026607</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="10">
-        <v>10</v>
-      </c>
       <c r="J12" s="10">
+        <v>10</v>
+      </c>
+      <c r="K12" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="L12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="10">
+      <c r="M12" s="10">
         <v>200</v>
       </c>
-      <c r="M12" s="10">
+      <c r="N12" s="10">
         <v>50</v>
       </c>
-      <c r="N12" s="10">
+      <c r="O12" s="10">
         <v>2</v>
       </c>
-      <c r="O12" s="10">
-        <v>10</v>
-      </c>
       <c r="P12" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="R12" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R12" s="10">
+      <c r="S12" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:257" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>51</v>
       </c>
@@ -2627,51 +2646,52 @@
       <c r="E13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="10">
-        <v>1154022106</v>
-      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="10">
         <v>1154022106</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10">
+        <v>1154022106</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="10">
-        <v>10</v>
-      </c>
       <c r="J13" s="10">
+        <v>10</v>
+      </c>
+      <c r="K13" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="L13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="10">
+      <c r="M13" s="10">
         <v>200</v>
       </c>
-      <c r="M13" s="10">
+      <c r="N13" s="10">
         <v>50</v>
       </c>
-      <c r="N13" s="10">
+      <c r="O13" s="10">
         <v>2</v>
       </c>
-      <c r="O13" s="10">
-        <v>10</v>
-      </c>
       <c r="P13" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="R13" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R13" s="10">
+      <c r="S13" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:257" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>55</v>
       </c>
@@ -2685,51 +2705,52 @@
       <c r="E14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="10">
-        <v>1158361798</v>
-      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="10">
         <v>1158361798</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10">
+        <v>1158361798</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="10">
-        <v>10</v>
-      </c>
       <c r="J14" s="10">
+        <v>10</v>
+      </c>
+      <c r="K14" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="10">
+      <c r="M14" s="10">
         <v>200</v>
       </c>
-      <c r="M14" s="10">
+      <c r="N14" s="10">
         <v>50</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <v>2</v>
       </c>
-      <c r="O14" s="10">
-        <v>10</v>
-      </c>
       <c r="P14" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="R14" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R14" s="10">
+      <c r="S14" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:257" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>58</v>
       </c>
@@ -2743,51 +2764,52 @@
       <c r="E15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="10">
-        <v>1158361854</v>
-      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="10">
         <v>1158361854</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10">
+        <v>1158361854</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="10">
-        <v>10</v>
-      </c>
       <c r="J15" s="10">
+        <v>10</v>
+      </c>
+      <c r="K15" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="L15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="10">
+      <c r="M15" s="10">
         <v>200</v>
       </c>
-      <c r="M15" s="10">
+      <c r="N15" s="10">
         <v>50</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <v>2</v>
       </c>
-      <c r="O15" s="10">
-        <v>10</v>
-      </c>
       <c r="P15" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="R15" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R15" s="10">
+      <c r="S15" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:257" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>61</v>
       </c>
@@ -2801,51 +2823,52 @@
       <c r="E16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="10">
-        <v>1153037293</v>
-      </c>
+      <c r="F16" s="12"/>
       <c r="G16" s="10">
         <v>1153037293</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="10">
+        <v>1153037293</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="10">
-        <v>10</v>
-      </c>
       <c r="J16" s="10">
+        <v>10</v>
+      </c>
+      <c r="K16" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="L16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="10">
+      <c r="M16" s="10">
         <v>200</v>
       </c>
-      <c r="M16" s="10">
+      <c r="N16" s="10">
         <v>50</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <v>2</v>
       </c>
-      <c r="O16" s="10">
-        <v>10</v>
-      </c>
       <c r="P16" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="R16" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R16" s="10">
+      <c r="S16" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -2859,51 +2882,52 @@
       <c r="E17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="10">
-        <v>1153037289</v>
-      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="10">
         <v>1153037289</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10">
+        <v>1153037289</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="10">
-        <v>10</v>
-      </c>
       <c r="J17" s="10">
+        <v>10</v>
+      </c>
+      <c r="K17" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="L17" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="10">
+      <c r="M17" s="10">
         <v>200</v>
       </c>
-      <c r="M17" s="10">
+      <c r="N17" s="10">
         <v>50</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <v>2</v>
       </c>
-      <c r="O17" s="10">
-        <v>10</v>
-      </c>
       <c r="P17" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="R17" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R17" s="10">
+      <c r="S17" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
         <v>18</v>
       </c>
@@ -2919,51 +2943,52 @@
       <c r="E18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="10">
-        <v>1154027486</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="10">
         <v>1154027486</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10">
+        <v>1154027486</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="10">
-        <v>10</v>
-      </c>
       <c r="J18" s="10">
+        <v>10</v>
+      </c>
+      <c r="K18" s="10">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="L18" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="10">
+      <c r="M18" s="10">
         <v>200</v>
       </c>
-      <c r="M18" s="10">
+      <c r="N18" s="10">
         <v>50</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <v>2</v>
       </c>
-      <c r="O18" s="10">
-        <v>10</v>
-      </c>
       <c r="P18" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="R18" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R18" s="10">
+      <c r="S18" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>33</v>
       </c>
@@ -2977,51 +3002,52 @@
       <c r="E19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="10">
-        <v>1147052944</v>
-      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="10">
         <v>1147052944</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="10">
+        <v>1147052944</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="10">
-        <v>10</v>
-      </c>
       <c r="J19" s="10">
-        <f t="shared" ref="J19:J33" si="4">I19*1000</f>
+        <v>10</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" ref="K19:K33" si="4">J19*1000</f>
         <v>10000</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="L19" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="10">
+      <c r="M19" s="10">
         <v>200</v>
       </c>
-      <c r="M19" s="10">
+      <c r="N19" s="10">
         <v>50</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <v>2</v>
       </c>
-      <c r="O19" s="10">
-        <v>10</v>
-      </c>
       <c r="P19" s="10">
-        <f t="shared" ref="P19:P33" si="5">L19-Q19-R19</f>
+        <v>10</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" ref="Q19:Q33" si="5">M19-R19-S19</f>
         <v>190</v>
       </c>
-      <c r="Q19" s="10">
-        <f t="shared" ref="Q19:Q33" si="6">(M19*L19)/J19</f>
+      <c r="R19" s="10">
+        <f t="shared" ref="R19:R33" si="6">(N19*M19)/K19</f>
         <v>1</v>
       </c>
-      <c r="R19" s="10">
-        <f t="shared" ref="R19:R33" si="7">10-Q19</f>
+      <c r="S19" s="10">
+        <f t="shared" ref="S19:S33" si="7">10-R19</f>
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
         <v>36</v>
       </c>
@@ -3035,51 +3061,52 @@
       <c r="E20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="10">
-        <v>1147052947</v>
-      </c>
+      <c r="F20" s="12"/>
       <c r="G20" s="10">
         <v>1147052947</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="10">
+        <v>1147052947</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="10">
-        <v>10</v>
-      </c>
       <c r="J20" s="10">
+        <v>10</v>
+      </c>
+      <c r="K20" s="10">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="L20" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="10">
+      <c r="M20" s="10">
         <v>200</v>
       </c>
-      <c r="M20" s="10">
+      <c r="N20" s="10">
         <v>50</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <v>2</v>
       </c>
-      <c r="O20" s="10">
-        <v>10</v>
-      </c>
       <c r="P20" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="10">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="R20" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R20" s="10">
+      <c r="S20" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
         <v>39</v>
       </c>
@@ -3093,51 +3120,52 @@
       <c r="E21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="10">
-        <v>1147053134</v>
-      </c>
+      <c r="F21" s="12"/>
       <c r="G21" s="10">
         <v>1147053134</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="10">
+        <v>1147053134</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="10">
-        <v>10</v>
-      </c>
       <c r="J21" s="10">
+        <v>10</v>
+      </c>
+      <c r="K21" s="10">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="L21" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="10">
+      <c r="M21" s="10">
         <v>200</v>
       </c>
-      <c r="M21" s="10">
+      <c r="N21" s="10">
         <v>50</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <v>2</v>
       </c>
-      <c r="O21" s="10">
-        <v>10</v>
-      </c>
       <c r="P21" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="10">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="R21" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R21" s="10">
+      <c r="S21" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
         <v>42</v>
       </c>
@@ -3151,51 +3179,52 @@
       <c r="E22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="10">
-        <v>1129672871</v>
-      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="10">
         <v>1129672871</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="10">
+        <v>1129672871</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="10">
-        <v>10</v>
-      </c>
       <c r="J22" s="10">
+        <v>10</v>
+      </c>
+      <c r="K22" s="10">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="L22" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="L22" s="10">
+      <c r="M22" s="10">
         <v>200</v>
       </c>
-      <c r="M22" s="10">
+      <c r="N22" s="10">
         <v>50</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <v>2</v>
       </c>
-      <c r="O22" s="10">
-        <v>10</v>
-      </c>
       <c r="P22" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="10">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="R22" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R22" s="10">
+      <c r="S22" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
         <v>18</v>
       </c>
@@ -3211,51 +3240,52 @@
       <c r="E23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="10">
-        <v>1154027486</v>
-      </c>
+      <c r="F23" s="12"/>
       <c r="G23" s="10">
         <v>1154027486</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="10">
+        <v>1154027486</v>
+      </c>
+      <c r="I23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="10">
-        <v>10</v>
-      </c>
       <c r="J23" s="10">
+        <v>10</v>
+      </c>
+      <c r="K23" s="10">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="L23" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="10">
+      <c r="M23" s="10">
         <v>200</v>
       </c>
-      <c r="M23" s="10">
+      <c r="N23" s="10">
         <v>50</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <v>2</v>
       </c>
-      <c r="O23" s="10">
-        <v>10</v>
-      </c>
       <c r="P23" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="10">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="R23" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R23" s="10">
+      <c r="S23" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
         <v>18</v>
       </c>
@@ -3269,51 +3299,52 @@
       <c r="E24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="10">
-        <v>1154027486</v>
-      </c>
+      <c r="F24" s="12"/>
       <c r="G24" s="10">
         <v>1154027486</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="10">
+        <v>1154027486</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="10">
-        <v>10</v>
-      </c>
       <c r="J24" s="10">
+        <v>10</v>
+      </c>
+      <c r="K24" s="10">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="L24" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="10">
+      <c r="M24" s="10">
         <v>200</v>
       </c>
-      <c r="M24" s="10">
+      <c r="N24" s="10">
         <v>50</v>
       </c>
-      <c r="N24" s="10">
+      <c r="O24" s="10">
         <v>2</v>
       </c>
-      <c r="O24" s="10">
-        <v>10</v>
-      </c>
       <c r="P24" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="10">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="R24" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R24" s="10">
+      <c r="S24" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
         <v>47</v>
       </c>
@@ -3327,51 +3358,52 @@
       <c r="E25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="10">
-        <v>1154026607</v>
-      </c>
+      <c r="F25" s="12"/>
       <c r="G25" s="10">
         <v>1154026607</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="10">
+        <v>1154026607</v>
+      </c>
+      <c r="I25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="10">
-        <v>10</v>
-      </c>
       <c r="J25" s="10">
+        <v>10</v>
+      </c>
+      <c r="K25" s="10">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="L25" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="L25" s="10">
+      <c r="M25" s="10">
         <v>200</v>
       </c>
-      <c r="M25" s="10">
+      <c r="N25" s="10">
         <v>50</v>
       </c>
-      <c r="N25" s="10">
+      <c r="O25" s="10">
         <v>2</v>
       </c>
-      <c r="O25" s="10">
-        <v>10</v>
-      </c>
       <c r="P25" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="10">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="R25" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R25" s="10">
+      <c r="S25" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
         <v>51</v>
       </c>
@@ -3385,51 +3417,52 @@
       <c r="E26" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="10">
-        <v>1154022106</v>
-      </c>
+      <c r="F26" s="12"/>
       <c r="G26" s="10">
         <v>1154022106</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="10">
+        <v>1154022106</v>
+      </c>
+      <c r="I26" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="10">
-        <v>10</v>
-      </c>
       <c r="J26" s="10">
+        <v>10</v>
+      </c>
+      <c r="K26" s="10">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="L26" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="L26" s="10">
+      <c r="M26" s="10">
         <v>200</v>
       </c>
-      <c r="M26" s="10">
+      <c r="N26" s="10">
         <v>50</v>
       </c>
-      <c r="N26" s="10">
+      <c r="O26" s="10">
         <v>2</v>
       </c>
-      <c r="O26" s="10">
-        <v>10</v>
-      </c>
       <c r="P26" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="10">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="R26" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R26" s="10">
+      <c r="S26" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
         <v>55</v>
       </c>
@@ -3443,51 +3476,52 @@
       <c r="E27" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="10">
-        <v>1158361798</v>
-      </c>
+      <c r="F27" s="12"/>
       <c r="G27" s="10">
         <v>1158361798</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="10">
+        <v>1158361798</v>
+      </c>
+      <c r="I27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="10">
-        <v>10</v>
-      </c>
       <c r="J27" s="10">
+        <v>10</v>
+      </c>
+      <c r="K27" s="10">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="L27" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="10">
+      <c r="M27" s="10">
         <v>200</v>
       </c>
-      <c r="M27" s="10">
+      <c r="N27" s="10">
         <v>50</v>
       </c>
-      <c r="N27" s="10">
+      <c r="O27" s="10">
         <v>2</v>
       </c>
-      <c r="O27" s="10">
-        <v>10</v>
-      </c>
       <c r="P27" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="10">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="R27" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R27" s="10">
+      <c r="S27" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>58</v>
       </c>
@@ -3501,51 +3535,52 @@
       <c r="E28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="10">
-        <v>1158361854</v>
-      </c>
+      <c r="F28" s="12"/>
       <c r="G28" s="10">
         <v>1158361854</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="10">
+        <v>1158361854</v>
+      </c>
+      <c r="I28" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="10">
-        <v>10</v>
-      </c>
       <c r="J28" s="10">
+        <v>10</v>
+      </c>
+      <c r="K28" s="10">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="L28" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L28" s="10">
+      <c r="M28" s="10">
         <v>200</v>
       </c>
-      <c r="M28" s="10">
+      <c r="N28" s="10">
         <v>50</v>
       </c>
-      <c r="N28" s="10">
+      <c r="O28" s="10">
         <v>2</v>
       </c>
-      <c r="O28" s="10">
-        <v>10</v>
-      </c>
       <c r="P28" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="10">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="R28" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R28" s="10">
+      <c r="S28" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
         <v>61</v>
       </c>
@@ -3559,51 +3594,52 @@
       <c r="E29" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="10">
-        <v>1153037293</v>
-      </c>
+      <c r="F29" s="12"/>
       <c r="G29" s="10">
         <v>1153037293</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="10">
+        <v>1153037293</v>
+      </c>
+      <c r="I29" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="10">
-        <v>10</v>
-      </c>
       <c r="J29" s="10">
+        <v>10</v>
+      </c>
+      <c r="K29" s="10">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="L29" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="L29" s="10">
+      <c r="M29" s="10">
         <v>200</v>
       </c>
-      <c r="M29" s="10">
+      <c r="N29" s="10">
         <v>50</v>
       </c>
-      <c r="N29" s="10">
+      <c r="O29" s="10">
         <v>2</v>
       </c>
-      <c r="O29" s="10">
-        <v>10</v>
-      </c>
       <c r="P29" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="10">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="R29" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R29" s="10">
+      <c r="S29" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
@@ -3617,51 +3653,52 @@
       <c r="E30" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="10">
-        <v>1153037289</v>
-      </c>
+      <c r="F30" s="12"/>
       <c r="G30" s="10">
         <v>1153037289</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="10">
+        <v>1153037289</v>
+      </c>
+      <c r="I30" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="10">
-        <v>10</v>
-      </c>
       <c r="J30" s="10">
+        <v>10</v>
+      </c>
+      <c r="K30" s="10">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="L30" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="L30" s="10">
+      <c r="M30" s="10">
         <v>200</v>
       </c>
-      <c r="M30" s="10">
+      <c r="N30" s="10">
         <v>50</v>
       </c>
-      <c r="N30" s="10">
+      <c r="O30" s="10">
         <v>2</v>
       </c>
-      <c r="O30" s="10">
-        <v>10</v>
-      </c>
       <c r="P30" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="10">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="R30" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R30" s="10">
+      <c r="S30" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
         <v>18</v>
       </c>
@@ -3677,51 +3714,52 @@
       <c r="E31" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="10">
-        <v>1154027486</v>
-      </c>
+      <c r="F31" s="12"/>
       <c r="G31" s="10">
         <v>1154027486</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="10">
+        <v>1154027486</v>
+      </c>
+      <c r="I31" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="10">
-        <v>10</v>
-      </c>
       <c r="J31" s="10">
+        <v>10</v>
+      </c>
+      <c r="K31" s="10">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="L31" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="L31" s="10">
+      <c r="M31" s="10">
         <v>200</v>
       </c>
-      <c r="M31" s="10">
+      <c r="N31" s="10">
         <v>50</v>
       </c>
-      <c r="N31" s="10">
+      <c r="O31" s="10">
         <v>2</v>
       </c>
-      <c r="O31" s="10">
-        <v>10</v>
-      </c>
       <c r="P31" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="10">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="R31" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R31" s="10">
+      <c r="S31" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
         <v>64</v>
       </c>
@@ -3735,51 +3773,52 @@
       <c r="E32" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="10">
-        <v>1153037289</v>
-      </c>
+      <c r="F32" s="12"/>
       <c r="G32" s="10">
         <v>1153037289</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="10">
+        <v>1153037289</v>
+      </c>
+      <c r="I32" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="10">
-        <v>10</v>
-      </c>
       <c r="J32" s="10">
+        <v>10</v>
+      </c>
+      <c r="K32" s="10">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="L32" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="L32" s="10">
+      <c r="M32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="10">
+      <c r="N32" s="10">
         <v>50</v>
       </c>
-      <c r="N32" s="10">
+      <c r="O32" s="10">
         <v>2</v>
       </c>
-      <c r="O32" s="10">
-        <v>10</v>
-      </c>
       <c r="P32" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="10">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="R32" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R32" s="10">
+      <c r="S32" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
         <v>18</v>
       </c>
@@ -3795,46 +3834,47 @@
       <c r="E33" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="10">
-        <v>1154027486</v>
-      </c>
+      <c r="F33" s="12"/>
       <c r="G33" s="10">
         <v>1154027486</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="10">
+        <v>1154027486</v>
+      </c>
+      <c r="I33" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="10">
-        <v>10</v>
-      </c>
       <c r="J33" s="10">
+        <v>10</v>
+      </c>
+      <c r="K33" s="10">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="L33" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L33" s="10">
+      <c r="M33" s="10">
         <v>200</v>
       </c>
-      <c r="M33" s="10">
+      <c r="N33" s="10">
         <v>50</v>
       </c>
-      <c r="N33" s="10">
+      <c r="O33" s="10">
         <v>2</v>
       </c>
-      <c r="O33" s="10">
-        <v>10</v>
-      </c>
       <c r="P33" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="10">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="R33" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R33" s="10">
+      <c r="S33" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
